--- a/Docs/MainScreen.xlsx
+++ b/Docs/MainScreen.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Debian\home\artic\poolChess\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF88BDF-9B28-4F54-90AF-7097A9AF12F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="30930" windowHeight="17670"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="10320" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="21">
   <si>
     <t>A</t>
   </si>
@@ -86,17 +87,14 @@
     <t>:</t>
   </si>
   <si>
-    <t>_</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +128,12 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="SauceCodePro Nerd Font Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="SauceCodePro Nerd Font Mono"/>
       <family val="3"/>
@@ -173,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -185,6 +189,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,14 +469,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN34" sqref="AN34"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AL11" sqref="AL11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="9" customWidth="1"/>
     <col min="2" max="65" width="5.5703125" style="9" bestFit="1" customWidth="1"/>
@@ -483,201 +491,201 @@
         <v>100</v>
       </c>
       <c r="B1" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I1" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J1" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K1" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L1" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M1" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N1" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O1" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P1" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q1" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R1" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S1" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T1" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U1" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="V1" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="W1" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="X1" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y1" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z1" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA1" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AB1" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC1" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AD1" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AE1" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF1" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG1" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AH1" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI1" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ1" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK1" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL1" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM1" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AN1" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AO1" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AP1" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AQ1" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AR1" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AS1" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AT1" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AU1" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AV1" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AW1" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AX1" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AY1" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AZ1" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BA1" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BB1" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BC1" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BD1" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BE1" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BF1" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BG1" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BH1" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BI1" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BJ1" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BK1" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BL1" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BM1" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -746,7 +754,7 @@
     </row>
     <row r="3" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A3" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -800,38 +808,94 @@
       </c>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="2"/>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="2"/>
-      <c r="BK3" s="2"/>
-      <c r="BL3" s="2"/>
-      <c r="BM3" s="2"/>
+      <c r="AL3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="11">
+        <v>2</v>
+      </c>
+      <c r="AO3" s="11">
+        <v>3</v>
+      </c>
+      <c r="AP3" s="11">
+        <v>4</v>
+      </c>
+      <c r="AQ3" s="11">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="11">
+        <v>6</v>
+      </c>
+      <c r="AS3" s="11">
+        <v>7</v>
+      </c>
+      <c r="AT3" s="11">
+        <v>8</v>
+      </c>
+      <c r="AU3" s="11">
+        <v>9</v>
+      </c>
+      <c r="AV3" s="11">
+        <v>10</v>
+      </c>
+      <c r="AW3" s="11">
+        <v>11</v>
+      </c>
+      <c r="AX3" s="11">
+        <v>12</v>
+      </c>
+      <c r="AY3" s="11">
+        <v>13</v>
+      </c>
+      <c r="AZ3" s="11">
+        <v>14</v>
+      </c>
+      <c r="BA3" s="11">
+        <v>15</v>
+      </c>
+      <c r="BB3" s="11">
+        <v>16</v>
+      </c>
+      <c r="BC3" s="11">
+        <v>17</v>
+      </c>
+      <c r="BD3" s="11">
+        <v>18</v>
+      </c>
+      <c r="BE3" s="11">
+        <v>19</v>
+      </c>
+      <c r="BF3" s="11">
+        <v>20</v>
+      </c>
+      <c r="BG3" s="11">
+        <v>21</v>
+      </c>
+      <c r="BH3" s="11">
+        <v>22</v>
+      </c>
+      <c r="BI3" s="11">
+        <v>23</v>
+      </c>
+      <c r="BJ3" s="11">
+        <v>24</v>
+      </c>
+      <c r="BK3" s="11">
+        <v>25</v>
+      </c>
+      <c r="BL3" s="11">
+        <v>26</v>
+      </c>
+      <c r="BM3" s="11">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A4" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -869,94 +933,40 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
-      <c r="AL4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AR4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AY4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AZ4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BA4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BB4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BC4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BD4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BE4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BF4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BG4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BH4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BI4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BJ4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BK4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BL4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BM4" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="AL4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
     </row>
     <row r="5" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A5" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -994,38 +1004,45 @@
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
+      <c r="AL5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
+      <c r="AT5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="AY5" s="2"/>
       <c r="AZ5" s="2"/>
       <c r="BA5" s="2"/>
       <c r="BB5" s="2"/>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="2"/>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2"/>
-      <c r="BH5" s="2"/>
-      <c r="BI5" s="2"/>
-      <c r="BJ5" s="2"/>
-      <c r="BK5" s="2"/>
-      <c r="BL5" s="2"/>
-      <c r="BM5" s="2"/>
     </row>
     <row r="6" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A6" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2">
@@ -1081,37 +1098,21 @@
       </c>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="6"/>
-      <c r="AL6" s="2"/>
+      <c r="AL6" s="2">
+        <v>3</v>
+      </c>
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
-      <c r="AO6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR6" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
-      <c r="AT6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AU6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AV6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AX6" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
       <c r="AY6" s="2"/>
       <c r="AZ6" s="2"/>
       <c r="BA6" s="2"/>
@@ -1130,7 +1131,7 @@
     </row>
     <row r="7" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A7" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1168,22 +1169,44 @@
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
-      <c r="AL7" s="2"/>
+      <c r="AL7" s="2">
+        <v>4</v>
+      </c>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
-      <c r="AO7" s="2"/>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
+      <c r="AO7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS7" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2"/>
-      <c r="AY7" s="2"/>
-      <c r="AZ7" s="2"/>
-      <c r="BA7" s="2"/>
+      <c r="AW7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA7" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="BB7" s="2"/>
       <c r="BC7" s="2"/>
       <c r="BD7" s="2"/>
@@ -1199,7 +1222,7 @@
     </row>
     <row r="8" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A8" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1237,42 +1260,24 @@
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
-      <c r="AL8" s="2"/>
+      <c r="AL8" s="2">
+        <v>5</v>
+      </c>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
-      <c r="AO8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AR8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AS8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
-      <c r="AW8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AY8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="BA8" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
       <c r="BB8" s="2"/>
       <c r="BC8" s="2"/>
       <c r="BD8" s="2"/>
@@ -1288,7 +1293,7 @@
     </row>
     <row r="9" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A9" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2">
@@ -1344,22 +1349,44 @@
       </c>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
-      <c r="AL9" s="2"/>
+      <c r="AL9" s="2">
+        <v>6</v>
+      </c>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
+      <c r="AO9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>0</v>
+      </c>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="2"/>
-      <c r="BA9" s="2"/>
+      <c r="AW9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="2">
+        <v>0</v>
+      </c>
       <c r="BB9" s="2"/>
       <c r="BC9" s="2"/>
       <c r="BD9" s="2"/>
@@ -1375,7 +1402,7 @@
     </row>
     <row r="10" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A10" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1413,43 +1440,11 @@
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
-      <c r="AL10" s="2"/>
+      <c r="AL10" s="2">
+        <v>7</v>
+      </c>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
-      <c r="AO10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="2"/>
-      <c r="AU10" s="2"/>
-      <c r="AV10" s="2"/>
-      <c r="AW10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ10" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="2"/>
       <c r="BC10" s="2"/>
       <c r="BD10" s="2"/>
       <c r="BE10" s="2"/>
@@ -1464,7 +1459,7 @@
     </row>
     <row r="11" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A11" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1502,38 +1497,94 @@
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
-      <c r="AL11" s="2"/>
-      <c r="AM11" s="2"/>
-      <c r="AN11" s="2"/>
-      <c r="AO11" s="2"/>
-      <c r="AP11" s="2"/>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
-      <c r="AS11" s="2"/>
-      <c r="AT11" s="2"/>
-      <c r="AU11" s="2"/>
-      <c r="AV11" s="2"/>
-      <c r="AW11" s="2"/>
-      <c r="AX11" s="2"/>
-      <c r="AY11" s="2"/>
-      <c r="AZ11" s="2"/>
-      <c r="BA11" s="2"/>
-      <c r="BB11" s="2"/>
-      <c r="BC11" s="2"/>
-      <c r="BD11" s="2"/>
-      <c r="BE11" s="2"/>
-      <c r="BF11" s="2"/>
-      <c r="BG11" s="2"/>
-      <c r="BH11" s="2"/>
-      <c r="BI11" s="2"/>
-      <c r="BJ11" s="2"/>
-      <c r="BK11" s="2"/>
-      <c r="BL11" s="2"/>
-      <c r="BM11" s="2"/>
+      <c r="AL11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>2</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>3</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>4</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>5</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>6</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>7</v>
+      </c>
+      <c r="AT11" s="11">
+        <v>8</v>
+      </c>
+      <c r="AU11" s="11">
+        <v>9</v>
+      </c>
+      <c r="AV11" s="11">
+        <v>10</v>
+      </c>
+      <c r="AW11" s="11">
+        <v>11</v>
+      </c>
+      <c r="AX11" s="11">
+        <v>12</v>
+      </c>
+      <c r="AY11" s="11">
+        <v>13</v>
+      </c>
+      <c r="AZ11" s="11">
+        <v>14</v>
+      </c>
+      <c r="BA11" s="11">
+        <v>15</v>
+      </c>
+      <c r="BB11" s="11">
+        <v>16</v>
+      </c>
+      <c r="BC11" s="11">
+        <v>17</v>
+      </c>
+      <c r="BD11" s="11">
+        <v>18</v>
+      </c>
+      <c r="BE11" s="11">
+        <v>19</v>
+      </c>
+      <c r="BF11" s="11">
+        <v>20</v>
+      </c>
+      <c r="BG11" s="11">
+        <v>21</v>
+      </c>
+      <c r="BH11" s="11">
+        <v>22</v>
+      </c>
+      <c r="BI11" s="11">
+        <v>23</v>
+      </c>
+      <c r="BJ11" s="11">
+        <v>24</v>
+      </c>
+      <c r="BK11" s="11">
+        <v>25</v>
+      </c>
+      <c r="BL11" s="11">
+        <v>26</v>
+      </c>
+      <c r="BM11" s="11">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A12" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2">
@@ -1573,94 +1624,40 @@
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
-      <c r="AL12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AP12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AR12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AU12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AW12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AY12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AZ12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BA12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BB12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BC12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BD12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BE12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BF12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BG12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BH12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BI12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BJ12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BK12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BL12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BM12" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="AL12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
+      <c r="BJ12" s="2"/>
+      <c r="BK12" s="2"/>
+      <c r="BL12" s="2"/>
+      <c r="BM12" s="2"/>
     </row>
     <row r="13" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A13" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1698,7 +1695,9 @@
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
-      <c r="AL13" s="2"/>
+      <c r="AL13" s="11">
+        <v>2</v>
+      </c>
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
@@ -1729,7 +1728,7 @@
     </row>
     <row r="14" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A14" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1767,7 +1766,9 @@
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
-      <c r="AL14" s="2"/>
+      <c r="AL14" s="2">
+        <v>3</v>
+      </c>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
@@ -1798,7 +1799,7 @@
     </row>
     <row r="15" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A15" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2">
@@ -1838,7 +1839,9 @@
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
-      <c r="AL15" s="2"/>
+      <c r="AL15" s="11">
+        <v>4</v>
+      </c>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
@@ -1869,7 +1872,7 @@
     </row>
     <row r="16" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A16" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1907,7 +1910,9 @@
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
-      <c r="AL16" s="2"/>
+      <c r="AL16" s="2">
+        <v>5</v>
+      </c>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
@@ -1938,7 +1943,7 @@
     </row>
     <row r="17" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A17" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1976,7 +1981,9 @@
       <c r="AI17" s="4"/>
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
-      <c r="AL17" s="2"/>
+      <c r="AL17" s="11">
+        <v>6</v>
+      </c>
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
@@ -2007,7 +2014,7 @@
     </row>
     <row r="18" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A18" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2">
@@ -2047,7 +2054,9 @@
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
-      <c r="AL18" s="2"/>
+      <c r="AL18" s="2">
+        <v>7</v>
+      </c>
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
@@ -2078,7 +2087,7 @@
     </row>
     <row r="19" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A19" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2116,7 +2125,9 @@
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
-      <c r="AL19" s="2"/>
+      <c r="AL19" s="11">
+        <v>8</v>
+      </c>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
@@ -2147,7 +2158,7 @@
     </row>
     <row r="20" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A20" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2185,7 +2196,9 @@
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
-      <c r="AL20" s="2"/>
+      <c r="AL20" s="2">
+        <v>9</v>
+      </c>
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
@@ -2216,7 +2229,7 @@
     </row>
     <row r="21" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A21" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2">
@@ -2256,7 +2269,9 @@
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
-      <c r="AL21" s="2"/>
+      <c r="AL21" s="11">
+        <v>10</v>
+      </c>
       <c r="AM21" s="2"/>
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
@@ -2287,7 +2302,7 @@
     </row>
     <row r="22" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A22" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2325,38 +2340,94 @@
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
-      <c r="AL22" s="2"/>
-      <c r="AM22" s="2"/>
-      <c r="AN22" s="2"/>
-      <c r="AO22" s="2"/>
-      <c r="AP22" s="2"/>
-      <c r="AQ22" s="2"/>
-      <c r="AR22" s="2"/>
-      <c r="AS22" s="2"/>
-      <c r="AT22" s="2"/>
-      <c r="AU22" s="2"/>
-      <c r="AV22" s="2"/>
-      <c r="AW22" s="2"/>
-      <c r="AX22" s="2"/>
-      <c r="AY22" s="2"/>
-      <c r="AZ22" s="2"/>
-      <c r="BA22" s="2"/>
-      <c r="BB22" s="2"/>
-      <c r="BC22" s="2"/>
-      <c r="BD22" s="2"/>
-      <c r="BE22" s="2"/>
-      <c r="BF22" s="2"/>
-      <c r="BG22" s="2"/>
-      <c r="BH22" s="2"/>
-      <c r="BI22" s="2"/>
-      <c r="BJ22" s="2"/>
-      <c r="BK22" s="2"/>
-      <c r="BL22" s="2"/>
-      <c r="BM22" s="2"/>
+      <c r="AL22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="11">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="11">
+        <v>2</v>
+      </c>
+      <c r="AO22" s="11">
+        <v>3</v>
+      </c>
+      <c r="AP22" s="11">
+        <v>4</v>
+      </c>
+      <c r="AQ22" s="11">
+        <v>5</v>
+      </c>
+      <c r="AR22" s="11">
+        <v>6</v>
+      </c>
+      <c r="AS22" s="11">
+        <v>7</v>
+      </c>
+      <c r="AT22" s="11">
+        <v>8</v>
+      </c>
+      <c r="AU22" s="11">
+        <v>9</v>
+      </c>
+      <c r="AV22" s="11">
+        <v>10</v>
+      </c>
+      <c r="AW22" s="11">
+        <v>11</v>
+      </c>
+      <c r="AX22" s="11">
+        <v>12</v>
+      </c>
+      <c r="AY22" s="11">
+        <v>13</v>
+      </c>
+      <c r="AZ22" s="11">
+        <v>14</v>
+      </c>
+      <c r="BA22" s="11">
+        <v>15</v>
+      </c>
+      <c r="BB22" s="11">
+        <v>16</v>
+      </c>
+      <c r="BC22" s="11">
+        <v>17</v>
+      </c>
+      <c r="BD22" s="11">
+        <v>18</v>
+      </c>
+      <c r="BE22" s="11">
+        <v>19</v>
+      </c>
+      <c r="BF22" s="11">
+        <v>20</v>
+      </c>
+      <c r="BG22" s="11">
+        <v>21</v>
+      </c>
+      <c r="BH22" s="11">
+        <v>22</v>
+      </c>
+      <c r="BI22" s="11">
+        <v>23</v>
+      </c>
+      <c r="BJ22" s="11">
+        <v>24</v>
+      </c>
+      <c r="BK22" s="11">
+        <v>25</v>
+      </c>
+      <c r="BL22" s="11">
+        <v>26</v>
+      </c>
+      <c r="BM22" s="11">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A23" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2394,94 +2465,40 @@
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
-      <c r="AL23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AP23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AR23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AU23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AW23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AY23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AZ23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BA23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BB23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BC23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BD23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BE23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BF23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BG23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BH23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BI23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BJ23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BK23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BL23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BM23" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="AL23" s="11">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="2"/>
+      <c r="BK23" s="2"/>
+      <c r="BL23" s="2"/>
+      <c r="BM23" s="2"/>
     </row>
     <row r="24" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A24" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2">
@@ -2537,27 +2554,65 @@
       </c>
       <c r="AJ24" s="8"/>
       <c r="AK24" s="8"/>
-      <c r="AL24" s="2"/>
-      <c r="AM24" s="2"/>
-      <c r="AN24" s="2"/>
-      <c r="AO24" s="2"/>
-      <c r="AP24" s="2"/>
-      <c r="AQ24" s="2"/>
+      <c r="AL24" s="11">
+        <v>2</v>
+      </c>
+      <c r="AM24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ24" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="AR24" s="2"/>
-      <c r="AS24" s="2"/>
-      <c r="AT24" s="2"/>
-      <c r="AU24" s="2"/>
-      <c r="AV24" s="2"/>
-      <c r="AW24" s="2"/>
+      <c r="AS24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW24" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="AX24" s="2"/>
-      <c r="AY24" s="2"/>
-      <c r="AZ24" s="2"/>
-      <c r="BA24" s="2"/>
-      <c r="BB24" s="2"/>
-      <c r="BC24" s="2"/>
-      <c r="BD24" s="2"/>
-      <c r="BE24" s="2"/>
-      <c r="BF24" s="2"/>
+      <c r="AY24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF24" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="BG24" s="2"/>
       <c r="BH24" s="2"/>
       <c r="BI24" s="2"/>
@@ -2568,7 +2623,7 @@
     </row>
     <row r="25" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A25" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2606,63 +2661,29 @@
       <c r="AI25" s="4"/>
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
-      <c r="AL25" s="2"/>
-      <c r="AM25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ25" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="AL25" s="11">
+        <v>3</v>
+      </c>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
       <c r="AR25" s="2"/>
-      <c r="AS25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AU25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW25" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
       <c r="AX25" s="2"/>
-      <c r="AY25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BA25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="BC25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="BD25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="BE25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BF25" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
       <c r="BG25" s="2"/>
       <c r="BH25" s="2"/>
       <c r="BI25" s="2"/>
@@ -2673,7 +2694,7 @@
     </row>
     <row r="26" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A26" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2711,27 +2732,11 @@
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
-      <c r="AL26" s="2"/>
-      <c r="AM26" s="2"/>
-      <c r="AN26" s="2"/>
-      <c r="AO26" s="2"/>
-      <c r="AP26" s="2"/>
-      <c r="AQ26" s="2"/>
-      <c r="AR26" s="2"/>
-      <c r="AS26" s="2"/>
-      <c r="AT26" s="2"/>
-      <c r="AU26" s="2"/>
-      <c r="AV26" s="2"/>
-      <c r="AW26" s="2"/>
-      <c r="AX26" s="2"/>
-      <c r="AY26" s="2"/>
-      <c r="AZ26" s="2"/>
-      <c r="BA26" s="2"/>
-      <c r="BB26" s="2"/>
-      <c r="BC26" s="2"/>
-      <c r="BD26" s="2"/>
-      <c r="BE26" s="2"/>
-      <c r="BF26" s="2"/>
+      <c r="AL26" s="11">
+        <v>4</v>
+      </c>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
       <c r="BG26" s="2"/>
       <c r="BH26" s="2"/>
       <c r="BI26" s="2"/>
@@ -2742,7 +2747,7 @@
     </row>
     <row r="27" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A27" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2">
@@ -2798,10 +2803,9 @@
       </c>
       <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
-      <c r="AL27" s="2"/>
-      <c r="AM27" s="10"/>
-      <c r="AN27" s="10"/>
-      <c r="BG27" s="2"/>
+      <c r="AL27" s="11">
+        <v>5</v>
+      </c>
       <c r="BH27" s="2"/>
       <c r="BI27" s="2"/>
       <c r="BJ27" s="2"/>
@@ -2811,7 +2815,7 @@
     </row>
     <row r="28" spans="1:65" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A28" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2849,7 +2853,9 @@
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
-      <c r="AL28" s="2"/>
+      <c r="AL28" s="11">
+        <v>6</v>
+      </c>
       <c r="AM28" s="2"/>
       <c r="AN28" s="2"/>
       <c r="AO28" s="2"/>

--- a/Docs/MainScreen.xlsx
+++ b/Docs/MainScreen.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Debian\home\artic\poolChess\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF88BDF-9B28-4F54-90AF-7097A9AF12F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="10320" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1050" windowWidth="10320" windowHeight="10575"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -93,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -469,17 +468,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL11" sqref="AL11"/>
+      <selection pane="bottomRight" activeCell="AS25" sqref="AS25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="9" customWidth="1"/>
     <col min="2" max="65" width="5.5703125" style="9" bestFit="1" customWidth="1"/>
@@ -2557,63 +2556,62 @@
       <c r="AL24" s="11">
         <v>2</v>
       </c>
-      <c r="AM24" s="2" t="s">
+      <c r="AN24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AN24" s="2" t="s">
+      <c r="AO24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AO24" s="2" t="s">
+      <c r="AP24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AP24" s="2" t="s">
+      <c r="AQ24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AQ24" s="2" t="s">
+      <c r="AR24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AR24" s="2"/>
-      <c r="AS24" s="2" t="s">
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AT24" s="2" t="s">
+      <c r="AU24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AU24" s="2" t="s">
+      <c r="AV24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AV24" s="2" t="s">
+      <c r="AW24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AW24" s="2" t="s">
+      <c r="AX24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AX24" s="2"/>
-      <c r="AY24" s="2" t="s">
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AZ24" s="2" t="s">
+      <c r="BA24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="BA24" s="2" t="s">
+      <c r="BB24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="BB24" s="2" t="s">
+      <c r="BC24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="BC24" s="2" t="s">
+      <c r="BD24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="BD24" s="2" t="s">
+      <c r="BE24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="BE24" s="2" t="s">
+      <c r="BF24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="BF24" s="2" t="s">
+      <c r="BG24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="BG24" s="2"/>
       <c r="BH24" s="2"/>
       <c r="BI24" s="2"/>
       <c r="BJ24" s="2"/>
@@ -2664,7 +2662,6 @@
       <c r="AL25" s="11">
         <v>3</v>
       </c>
-      <c r="AM25" s="2"/>
       <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
@@ -2735,9 +2732,8 @@
       <c r="AL26" s="11">
         <v>4</v>
       </c>
-      <c r="AM26" s="10"/>
       <c r="AN26" s="10"/>
-      <c r="BG26" s="2"/>
+      <c r="AO26" s="10"/>
       <c r="BH26" s="2"/>
       <c r="BI26" s="2"/>
       <c r="BJ26" s="2"/>
